--- a/injury-analysis/datasets/Match_results.xlsx
+++ b/injury-analysis/datasets/Match_results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Denu\Python\Proj_Football\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Denu\GitHub\atm-injury-analysis\injury-analysis\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B574E10-EC2B-47A4-99F9-7AB9B7EA6CE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FC6D1A-157D-4EE9-B4C0-C5E07E389BD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7559FDEC-4944-48BD-8AE5-7A0C3AC6F5A0}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="45">
   <si>
     <t>Match Date</t>
   </si>
@@ -147,19 +147,7 @@
     <t>Inter Milan</t>
   </si>
   <si>
-    <t>2(3)</t>
-  </si>
-  <si>
-    <t>1(2)</t>
-  </si>
-  <si>
     <t>Dortmund</t>
-  </si>
-  <si>
-    <t>2(4)</t>
-  </si>
-  <si>
-    <t>4(5)</t>
   </si>
   <si>
     <t>UCL</t>
@@ -555,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57BFE2F8-07C3-4BFE-B4A5-0ED7ABA64E27}">
   <dimension ref="A2:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -572,7 +560,7 @@
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -723,7 +711,7 @@
         <v>45188</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>36</v>
@@ -839,7 +827,7 @@
         <v>45203</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>37</v>
@@ -926,7 +914,7 @@
         <v>45224</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>38</v>
@@ -1013,7 +1001,7 @@
         <v>45237</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>38</v>
@@ -1100,7 +1088,7 @@
         <v>45258</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>37</v>
@@ -1187,7 +1175,7 @@
         <v>45273</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>36</v>
@@ -1332,10 +1320,10 @@
         <v>45297</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>11</v>
@@ -1361,7 +1349,7 @@
         <v>45309</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>16</v>
@@ -1419,7 +1407,7 @@
         <v>45316</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>31</v>
@@ -1535,7 +1523,7 @@
         <v>45329</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>29</v>
@@ -1622,7 +1610,7 @@
         <v>45342</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>39</v>
@@ -1680,7 +1668,7 @@
         <v>45351</v>
       </c>
       <c r="C40" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>29</v>
@@ -1767,7 +1755,7 @@
         <v>45364</v>
       </c>
       <c r="C43" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>39</v>
@@ -1778,11 +1766,11 @@
       <c r="F43" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G43" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>41</v>
+      <c r="G43" s="2">
+        <v>2</v>
+      </c>
+      <c r="H43" s="2">
+        <v>1</v>
       </c>
       <c r="I43" s="2">
         <v>7.22</v>
@@ -1854,10 +1842,10 @@
         <v>45392</v>
       </c>
       <c r="C46" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>8</v>
@@ -1912,10 +1900,10 @@
         <v>45398</v>
       </c>
       <c r="C48" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>11</v>
@@ -1923,11 +1911,11 @@
       <c r="F48" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G48" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>44</v>
+      <c r="G48" s="2">
+        <v>2</v>
+      </c>
+      <c r="H48" s="2">
+        <v>4</v>
       </c>
       <c r="I48" s="2">
         <v>6.67</v>
